--- a/biology/Botanique/Colubrina/Colubrina.xlsx
+++ b/biology/Botanique/Colubrina/Colubrina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colubrina est un genre de plantes à fleurs de la famille des Rhamnaceae. Il compte environ 30 espèces originaires des régions tempérées chaudes et tropicales d'Afrique, des Amériques, de l'Asie du Sud, du nord de l'Australie et des îles de l'océan Indien. 
 Plusieurs noms vernaculaires sont attribués à ce genre et ses espèces : bois nu, bois de serpent, cœur vert et le hogplum.
-Le genre est au moins en partie un taxon poubelle dont la révision entraînera probablement le changement de nom d'un certain nombre d'espèces en différents genres[5].
+Le genre est au moins en partie un taxon poubelle dont la révision entraînera probablement le changement de nom d'un certain nombre d'espèces en différents genres.
 Colubrina asiatica, originaire d'Asie tropicale, d'Afrique orientale et du nord de l'Australie, est devenue une espèce envahissante en Floride.
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique est dérivé du mot latin coluber, qui signifie « serpent », et fait référence aux tiges ou étamines ressemblant à des serpents[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique est dérivé du mot latin coluber, qui signifie « serpent », et fait référence aux tiges ou étamines ressemblant à des serpents.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre vont des buissons à des arbustes voire des arbres de 1 à 10 mètres de hauteur, ayant des feuilles simples de forme ovale. Les fleurs sont petites, blanc verdâtre ou jaunâtre. Le fruit est une capsule contenant trois graines.
 </t>
@@ -576,7 +592,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de Colubrina sont utilisées comme plantes alimentaires par les larves de certaines espèces de lépidoptères dont Bucculatrix kendalli qui se nourrit exclusivement de C. texensis.
 </t>
@@ -607,7 +625,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les Caraïbes, les feuilles et / ou les fruits et, dans certains cas, l'écorce de certaines espèces sont utilisés pour produire une boisson gazeuse appelée mauby.
 </t>
@@ -638,9 +658,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (22 août 2020)[7] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (22 août 2020) :
 Colubrina acunae B. P. Kitanov
 Colubrina alluaudii (H. Perrier) Capuron
 Colubrina amazonica W. Palacios
@@ -679,7 +701,7 @@
 Colubrina verrucosa (Urb.) M. C. Johnston
 Colubrina viridis (M. E. Jones) M. C. Johnst.
 Colubrina yucatanensis (M. C. Johnst.) G. L. Nesom
-Selon ITIS      (22 août 2020)[8] :
+Selon ITIS      (22 août 2020) :
 Colubrina arborescens (Mill.) Sarg.
 Colubrina asiatica (L.) Brongn.
 Colubrina californica I.M. Johnst.
@@ -691,7 +713,7 @@
 Colubrina stricta Engelm. ex M.C. Johnst.
 Colubrina texensis (Torr. &amp; A. Gray) A. Gray
 Colubrina verrucosa (Urb.) M.C. Johnst.
-NCBI  (22 août 2020)[9] ajoute 4 espèces à la liste ITIS :
+NCBI  (22 août 2020) ajoute 4 espèces à la liste ITIS :
 Colubrina javanica Miq.
 Colubrina reclinata (L'Her.) Brongn.
 Colubrina spinosa Donn.Sm.
